--- a/P20WIN_Data_Dictionary.xlsx
+++ b/P20WIN_Data_Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880FBF7C-0A7C-46D0-9245-4D61E797CB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF4B31-FFD3-4C71-91E1-0E683258F143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6520" uniqueCount="1918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6988" uniqueCount="2068">
   <si>
     <t>Data Element Definition</t>
   </si>
@@ -7284,6 +7284,456 @@
   </si>
   <si>
     <t>Not Available</t>
+  </si>
+  <si>
+    <t>Children &amp; Families</t>
+  </si>
+  <si>
+    <t>Linking fields</t>
+  </si>
+  <si>
+    <t>DCF_Person_ID</t>
+  </si>
+  <si>
+    <t>Obfuscated Unique identifier for this person</t>
+  </si>
+  <si>
+    <t>State-assigned Student Identifier assigned by SDE</t>
+  </si>
+  <si>
+    <t>Name_Last</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Name_Middle</t>
+  </si>
+  <si>
+    <t>Middle Name/Initial</t>
+  </si>
+  <si>
+    <t>Name_First</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Birth_Date</t>
+  </si>
+  <si>
+    <t>Sex assigned at birth</t>
+  </si>
+  <si>
+    <t>Note: not a required field in the system and is often left blank unless this person is a child that enters DCF placement.</t>
+  </si>
+  <si>
+    <t>This is the Town in which the person lives during/on the date(s) included in the specific project criteria</t>
+  </si>
+  <si>
+    <t>Allegations</t>
+  </si>
+  <si>
+    <t>CASE_ID</t>
+  </si>
+  <si>
+    <t>The obfuscated version (per Safe Harbor) version of the unique numeric value identifying the Case (proxy for Family/Household) assocated with this CPS Report in LINK.</t>
+  </si>
+  <si>
+    <t>REPORT_ID</t>
+  </si>
+  <si>
+    <t>A unique numeric value for each CPS Report in LINK</t>
+  </si>
+  <si>
+    <t>REPORT_RECEIVED</t>
+  </si>
+  <si>
+    <t>Datetime stamp indicating when the CPS Report was received and created in LINK by the Careline Worker</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>REPORT_ACCEPTED</t>
+  </si>
+  <si>
+    <t>Datetime stamp indicating when the CPS Report was Accepted for a DRS response in LINK by the Careline Worker</t>
+  </si>
+  <si>
+    <t>REPORT_TYPE</t>
+  </si>
+  <si>
+    <t>Type of entity on which the CPS Report involves: Family, DCF Licensed Provider, Other Provider</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>PERSON_ENTRUSTED</t>
+  </si>
+  <si>
+    <t>Whether the report includes a perpetrator who is an entrusted caregiver (i.e. teacher, coach, daycare provider, etc)</t>
+  </si>
+  <si>
+    <t>ALLEGATION_ID</t>
+  </si>
+  <si>
+    <t>A unique numeric value for each Allegation record associated with CPS Reports in LINK</t>
+  </si>
+  <si>
+    <t>VICTIM_ID</t>
+  </si>
+  <si>
+    <t>The obfuscated version (per Safe Harbor) version of the unique numeric value identifying the Person identified as an alleged victim of abuse/neglect for this allegation record</t>
+  </si>
+  <si>
+    <t>VICTIM_AGE_RPT</t>
+  </si>
+  <si>
+    <t>Single-year age of the alleged victim on the Report Received Date</t>
+  </si>
+  <si>
+    <t>VICTIM_SEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The alleged victim's sex assigned at birth </t>
+  </si>
+  <si>
+    <t>VICTIM_RACE_ETHN_COMBO</t>
+  </si>
+  <si>
+    <t>The alleged victim's combined race/ethnicity (i.e. Hispanic, White)</t>
+  </si>
+  <si>
+    <t>PERPETRATOR_ID</t>
+  </si>
+  <si>
+    <t>The obfuscated version (per Safe Harbor) version of the unique numeric value identifying the Person identified as an alleged perpetrator of abuse/neglect against the identified alleged victim for this allegation record</t>
+  </si>
+  <si>
+    <t>PERPETRATOR_AGE_RPT</t>
+  </si>
+  <si>
+    <t>Single-year age of the alleged perpetrator on the Report Received Date</t>
+  </si>
+  <si>
+    <t>PERPETRATOR_SEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The alleged perpetrator's sex assigned at birth </t>
+  </si>
+  <si>
+    <t>PERPETRATOR_RACE_ETHN_COMBO</t>
+  </si>
+  <si>
+    <t>The alleged perpetrator's combined race/ethnicity (i.e. Hispanic, White)</t>
+  </si>
+  <si>
+    <t>AB_NEG_TYPE</t>
+  </si>
+  <si>
+    <t>The type of abuse/neglect alleged to have been perpetrated against the identified victim by the identified perpetrator for this allegation record.</t>
+  </si>
+  <si>
+    <t>ALLEG_DESCRIPTION1</t>
+  </si>
+  <si>
+    <t>One of three possible more detailed descriptions of the circumstances/factors associated with this allegation</t>
+  </si>
+  <si>
+    <t>ALLEG_DESCRIPTION2</t>
+  </si>
+  <si>
+    <t>ALLEG_DESCRIPTION3</t>
+  </si>
+  <si>
+    <t>SUBSTANTIATION</t>
+  </si>
+  <si>
+    <t>The determination of whether DCF has reasonable cause to believe (or clear and convincing evidence if appealed) that this type of abuse/neglect was perpetrated against the identified victim by the identified perpetrator based on the results of investigation of this CPS Report:  Pending, Substantiated, Unsubstantiated.  Please note: if this allegation is solely associated with a Family Assessment Response the value will remain "Pending" though there is no substantiation decision made at all in such responses.</t>
+  </si>
+  <si>
+    <t>CENTRAL_REGISTRY</t>
+  </si>
+  <si>
+    <t>The determination of whether DCF believes the identified perpetrator represents a continuing threat of abuse/neglect to children on the basis of the results of investigation of this allegation.</t>
+  </si>
+  <si>
+    <t>RESPONSE_TYPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the type of differential response that ultimately handled these allegations.  A report can be initially handled through a Family Assessment Response (FAR), but later change tracks to Investigation, but the reverse workflow is not possible.  Valid values are: Family Assessment, FAR Track Changed, Investigation, Pending </t>
+  </si>
+  <si>
+    <t>RESPONSE_ID</t>
+  </si>
+  <si>
+    <t>This is the unique identifier for the response associated with these allegation records.</t>
+  </si>
+  <si>
+    <t>RESPONSE_BEGIN_DATE</t>
+  </si>
+  <si>
+    <t>Datetime of the first attempted face-to-face contact between assigned DCF Social Worker and a family member for this DRS response</t>
+  </si>
+  <si>
+    <t>RESPONSE_DUE_DATE</t>
+  </si>
+  <si>
+    <t>Completion due date for this DRS response</t>
+  </si>
+  <si>
+    <t>RESPONSE_END_DATE</t>
+  </si>
+  <si>
+    <t>Actual completion date for this DRS response</t>
+  </si>
+  <si>
+    <t>DCF_OFFICE</t>
+  </si>
+  <si>
+    <t>DCF Office in which the DCF Social Worker assigned to respond to this report was working at the time of their response.</t>
+  </si>
+  <si>
+    <t>DCF_REGION</t>
+  </si>
+  <si>
+    <t>DCF Region in which the DCF Social Worker assigned to respond to this report was working at the time of their response.</t>
+  </si>
+  <si>
+    <t>HOUSING_INDIC</t>
+  </si>
+  <si>
+    <t>Indicator (Y/N) showing whether unstable/inadequate Housing was found to be a factor in this case as documented in multiple pieces of work associated with this report/response.</t>
+  </si>
+  <si>
+    <t>INT_PRTNR_VLNC_INDIC</t>
+  </si>
+  <si>
+    <t>Indicator (Y/N) showing whether Intimate Partner Violence was found to be a factor in this case as documented in multiple pieces of work associated with this report/response.</t>
+  </si>
+  <si>
+    <t>MNTL_HLTH_INDIC</t>
+  </si>
+  <si>
+    <t>Indicator (Y/N) showing whether Mental Health was found to be a factor in this case as documented in multiple pieces of work associated with this report/response.</t>
+  </si>
+  <si>
+    <t>SUBSTANCE_USE_INDIC</t>
+  </si>
+  <si>
+    <t>Indicator (Y/N) showing whether Substance Use/Abuse was found to be a factor in this case as documented in multiple pieces of work associated with this report/response.</t>
+  </si>
+  <si>
+    <t>Child Welfare Placements</t>
+  </si>
+  <si>
+    <t>EPISODE_ID</t>
+  </si>
+  <si>
+    <t>A unique numeric value for each episode of involvement of a specific person during either DCF In-Home or DCF Out-of-Home service time periods</t>
+  </si>
+  <si>
+    <t>The obfuscated version (per Safe Harbor) version of the unique numeric value identifying the Case (proxy for Family/Household) assocated with this Episode record in ROM</t>
+  </si>
+  <si>
+    <t>CIP_ID</t>
+  </si>
+  <si>
+    <t>The obfuscated version (per Safe Harbor) version of the unique numeric value identifying the Person (child-in-placement or CIP) identified associated with this Episode record</t>
+  </si>
+  <si>
+    <t>CIP_AGE_EPSD_STRT</t>
+  </si>
+  <si>
+    <t>Single-year age of the CIP on the Episode Start Date</t>
+  </si>
+  <si>
+    <t>CIP_AGE_PLCMNT_STRT</t>
+  </si>
+  <si>
+    <t>Single-year age of the CIP on this Placement's Start Date</t>
+  </si>
+  <si>
+    <t>CIP_SEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The CIP's sex assigned at birth </t>
+  </si>
+  <si>
+    <t>CIP_RACE_ETHN_COMBO</t>
+  </si>
+  <si>
+    <t>The CIP's combined race/ethnicity (i.e. Hispanic, White)</t>
+  </si>
+  <si>
+    <t>EPISODE_START_DATE</t>
+  </si>
+  <si>
+    <t>The start date of this DCF out-of-home care episode for the associated Person</t>
+  </si>
+  <si>
+    <t>EPISODE_END_DATE</t>
+  </si>
+  <si>
+    <t>The end date of this DCF out-of-home care episode</t>
+  </si>
+  <si>
+    <t>EPISODE_END_REASON</t>
+  </si>
+  <si>
+    <t>The end/discharge reason for this out-of-home care episode:  Not Applicable, Reunification, Guardianship, Adoption, Living with Other Relative(s), Emancipation, Transfer to Another Agency (i.e. DDS or DMHAS), Runaway, Death of Child, Missing/Unknown</t>
+  </si>
+  <si>
+    <t>PRIOR_FOSTER_CARE_EPISODES</t>
+  </si>
+  <si>
+    <t>Number of episodes of DCF out-of-home care that occurred prior to this episode record</t>
+  </si>
+  <si>
+    <t>NEXT_EPISODE_START_DATE</t>
+  </si>
+  <si>
+    <t>The start date of this child's next legal episode in DCF custody/guardianship.</t>
+  </si>
+  <si>
+    <t>PLACEMENT_RECORD_ID</t>
+  </si>
+  <si>
+    <t>A unique identifier for this specific placement record</t>
+  </si>
+  <si>
+    <t>PLACEMENT_START_DATE</t>
+  </si>
+  <si>
+    <t>The start date of this placement</t>
+  </si>
+  <si>
+    <t>PLACEMENT_END_DATE</t>
+  </si>
+  <si>
+    <t>The end date of this placement</t>
+  </si>
+  <si>
+    <t>PLACEMENT_END_REASON</t>
+  </si>
+  <si>
+    <t>The reason that this placement was ended</t>
+  </si>
+  <si>
+    <t>PLACEMENT_PROVIDER_ID</t>
+  </si>
+  <si>
+    <t>A unique identifier for this specific placement provider</t>
+  </si>
+  <si>
+    <t>PLACEMENT_CATEGORY</t>
+  </si>
+  <si>
+    <t>The category that describes the type of service delivered by this placement provider for this child</t>
+  </si>
+  <si>
+    <t>PLACEMENT_SERVICE_TYPE</t>
+  </si>
+  <si>
+    <t>The specific service type as entered into LINK that describes the type of service delivered by this placement provider for this child</t>
+  </si>
+  <si>
+    <t>PIE Service Episodes</t>
+  </si>
+  <si>
+    <t>A system-generated unique numeric value for each PIE service episode</t>
+  </si>
+  <si>
+    <t>PERSON_ID</t>
+  </si>
+  <si>
+    <t>A system-generated unique numeric value for each Person with a PIE service episode</t>
+  </si>
+  <si>
+    <t>PERSON_AGE_EPSD_STRT</t>
+  </si>
+  <si>
+    <t>Single-year age of the client/person on this Episode's Start Date</t>
+  </si>
+  <si>
+    <t>PERSON_SEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client/person's sex assigned at birth </t>
+  </si>
+  <si>
+    <t>PERSON_RACE_ETHN_COMBO</t>
+  </si>
+  <si>
+    <t>The client/person's combined race/ethnicity (i.e. Hispanic, White)</t>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+  </si>
+  <si>
+    <t>The acronym for the service (program) that was delivered for this episode</t>
+  </si>
+  <si>
+    <t>PROVIDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The acronym for the direct provider (agency/organization) that delivered this episode.  </t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>The acronym for the site/location from which this provider delivered this service to the client during this episode</t>
+  </si>
+  <si>
+    <t>REFERRAL_SOURCE</t>
+  </si>
+  <si>
+    <t>The source of the referral for this episode.  Please note that each program model has picked their own subset of all available values to utilize for this field.</t>
+  </si>
+  <si>
+    <t>REFERRAL_DATE</t>
+  </si>
+  <si>
+    <t>The date the provider received the referral for this episode</t>
+  </si>
+  <si>
+    <t>SERVICE_TYPE</t>
+  </si>
+  <si>
+    <t>A specific sub-type of service provided for this episode.  Most programs do not use this field, but it is important for those few that do so.</t>
+  </si>
+  <si>
+    <t>EVALUATION_ONLY</t>
+  </si>
+  <si>
+    <t>Whether or not the episode was terminated early, and prior to receipt of substantive services.  Definitions/criteria for this element vary by program model.  This field is used to filter out episodes that should not be included for outcome evaluation beyond engagement into services.</t>
+  </si>
+  <si>
+    <t>DCF_STATUS_INTAKE</t>
+  </si>
+  <si>
+    <t>The status of the client in relation to active/direct receipt of DCF services on the episode start date.</t>
+  </si>
+  <si>
+    <t>The end/discharge reason for this episode of service.  Please note that each program model has picked their own subset of all available values to utilize for this field, and those custom lists have changed over time for some programs.  Further details are available on request.</t>
+  </si>
+  <si>
+    <t>MET_TREATMENT_GOALS</t>
+  </si>
+  <si>
+    <t>Whether or not the client's episode of service was considered successful, according to program-specific criteria.  Please note this is a very soft/generic indicator of success, and most programs also have more stringent/robust measures as well, but which are not generalizable across programs in the same manner as this field.</t>
+  </si>
+  <si>
+    <t>DCF_STATUS_DISCHARGE</t>
+  </si>
+  <si>
+    <t>The status of the client in relation to active/direct receipt of DCF services on the episode end date.</t>
+  </si>
+  <si>
+    <t>Department of Children and Families (DCF)</t>
   </si>
 </sst>
 </file>
@@ -7412,7 +7862,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -7497,9 +7947,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7852,11 +8299,11 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ998"/>
+  <dimension ref="A1:AJ1075"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B835" sqref="B835"/>
+      <pane ySplit="1" topLeftCell="A765" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A998" sqref="A998:A1075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31493,11 +31940,1564 @@
       </c>
     </row>
     <row r="998" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B998" s="35"/>
-      <c r="C998" s="5"/>
-      <c r="D998" s="5"/>
-      <c r="E998" s="37"/>
-      <c r="F998" s="5"/>
+      <c r="A998" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B998" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C998" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D998" s="28" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E998" s="29" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F998" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A999" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B999" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C999" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D999" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E999" s="29" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F999" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1000" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1000" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1000" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1000" s="28" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E1000" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1000" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1001" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1001" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1001" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1001" s="28" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E1001" s="29" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F1001" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1002" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1002" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1002" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1002" s="28" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E1002" s="29" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F1002" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1003" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1003" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1003" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1003" s="28" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E1003" s="29" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F1003" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1004" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1004" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1004" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1004" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1004" s="29" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F1004" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1005" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1005" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1005" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1005" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1005" s="29" t="s">
+        <v>1931</v>
+      </c>
+      <c r="F1005" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1006" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1006" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1006" s="28" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D1006" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="E1006" s="29" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F1006" s="28" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1007" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1007" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1007" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1007" s="28" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E1007" s="29" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F1007" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1008" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1008" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1008" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1008" s="28" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E1008" s="29" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F1008" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1009" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1009" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1009" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1009" s="28" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E1009" s="29" t="s">
+        <v>1939</v>
+      </c>
+      <c r="F1009" s="28" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1010" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1010" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1010" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1010" s="28" t="s">
+        <v>1941</v>
+      </c>
+      <c r="E1010" s="29" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F1010" s="28" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1011" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1011" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1011" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1011" s="28" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E1011" s="29" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F1011" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1012" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1012" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1012" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1012" s="28" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E1012" s="29" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F1012" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1013" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1013" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1013" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1013" s="28" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E1013" s="29" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F1013" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1014" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1014" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1014" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1014" s="28" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E1014" s="29" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F1014" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1015" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1015" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1015" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1015" s="28" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E1015" s="29" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F1015" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1016" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1016" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1016" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1016" s="28" t="s">
+        <v>1954</v>
+      </c>
+      <c r="E1016" s="29" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F1016" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1017" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1017" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1017" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1017" s="28" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E1017" s="29" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F1017" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1018" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1018" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1018" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1018" s="28" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E1018" s="29" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F1018" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1019" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1019" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1019" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1019" s="28" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E1019" s="29" t="s">
+        <v>1961</v>
+      </c>
+      <c r="F1019" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1020" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1020" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1020" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1020" s="28" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E1020" s="29" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F1020" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1021" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1021" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1021" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1021" s="28" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E1021" s="29" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F1021" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1022" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1022" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1022" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1022" s="28" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E1022" s="29" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F1022" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1023" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1023" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1023" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1023" s="28" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E1023" s="29" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F1023" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1024" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1024" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1024" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1024" s="28" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E1024" s="29" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F1024" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1025" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1025" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1025" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1025" s="28" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E1025" s="29" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F1025" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1026" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1026" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1026" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1026" s="28" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E1026" s="29" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F1026" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1027" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1027" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1027" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1027" s="28" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E1027" s="29" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F1027" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1028" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1028" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1028" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1028" s="28" t="s">
+        <v>1976</v>
+      </c>
+      <c r="E1028" s="29" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F1028" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1029" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1029" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1029" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1029" s="28" t="s">
+        <v>1978</v>
+      </c>
+      <c r="E1029" s="29" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F1029" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1030" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1030" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1030" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1030" s="28" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E1030" s="29" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F1030" s="28" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1031" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1031" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1031" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1031" s="28" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E1031" s="29" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F1031" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1032" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1032" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1032" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1032" s="28" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E1032" s="29" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F1032" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1033" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1033" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1033" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1033" s="28" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E1033" s="29" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F1033" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1034" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1034" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1034" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1034" s="28" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E1034" s="29" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1034" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1035" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1035" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1035" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1035" s="28" t="s">
+        <v>1990</v>
+      </c>
+      <c r="E1035" s="29" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F1035" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1036" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1036" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1036" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1036" s="28" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E1036" s="29" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F1036" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1037" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1037" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1037" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1037" s="28" t="s">
+        <v>1994</v>
+      </c>
+      <c r="E1037" s="29" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F1037" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1038" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1038" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1038" s="28" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D1038" s="28" t="s">
+        <v>1996</v>
+      </c>
+      <c r="E1038" s="29" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F1038" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1039" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1039" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1039" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1039" s="28" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E1039" s="29" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F1039" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1040" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1040" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1040" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1040" s="28" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E1040" s="29" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F1040" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1041" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1041" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1041" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1041" s="28" t="s">
+        <v>2002</v>
+      </c>
+      <c r="E1041" s="29" t="s">
+        <v>2003</v>
+      </c>
+      <c r="F1041" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1042" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1042" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1042" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1042" s="28" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E1042" s="29" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F1042" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1043" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1043" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1043" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1043" s="28" t="s">
+        <v>2006</v>
+      </c>
+      <c r="E1043" s="29" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F1043" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1044" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1044" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1044" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1044" s="28" t="s">
+        <v>2008</v>
+      </c>
+      <c r="E1044" s="29" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F1044" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1045" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1045" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1045" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1045" s="28" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E1045" s="29" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F1045" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1046" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1046" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1046" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1046" s="28" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E1046" s="29" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F1046" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1047" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1047" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1047" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1047" s="28" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E1047" s="29" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F1047" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1048" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1048" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1048" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1048" s="28" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E1048" s="29" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F1048" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1049" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1049" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1049" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1049" s="28" t="s">
+        <v>2018</v>
+      </c>
+      <c r="E1049" s="29" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F1049" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1050" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1050" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1050" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1050" s="28" t="s">
+        <v>2020</v>
+      </c>
+      <c r="E1050" s="29" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F1050" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1051" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1051" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1051" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1051" s="28" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E1051" s="29" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F1051" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1052" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1052" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1052" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1052" s="28" t="s">
+        <v>2024</v>
+      </c>
+      <c r="E1052" s="29" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1052" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1053" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1053" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1053" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1053" s="28" t="s">
+        <v>2026</v>
+      </c>
+      <c r="E1053" s="29" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F1053" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1054" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1054" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1054" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1054" s="28" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E1054" s="29" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F1054" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1055" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1055" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1055" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1055" s="28" t="s">
+        <v>2030</v>
+      </c>
+      <c r="E1055" s="29" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F1055" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1056" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1056" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1056" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1056" s="28" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E1056" s="29" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F1056" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1057" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1057" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1057" s="28" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1057" s="28" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E1057" s="29" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F1057" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1058" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1058" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1058" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1058" s="28" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E1058" s="29" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F1058" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1059" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1059" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1059" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1059" s="28" t="s">
+        <v>2038</v>
+      </c>
+      <c r="E1059" s="29" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F1059" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1060" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1060" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1060" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1060" s="28" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E1060" s="29" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F1060" s="28" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1061" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1061" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1061" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1061" s="28" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E1061" s="29" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F1061" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1062" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1062" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1062" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1062" s="28" t="s">
+        <v>2044</v>
+      </c>
+      <c r="E1062" s="29" t="s">
+        <v>2045</v>
+      </c>
+      <c r="F1062" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1063" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1063" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1063" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1063" s="28" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E1063" s="29" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F1063" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1064" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1064" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1064" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1064" s="28" t="s">
+        <v>2048</v>
+      </c>
+      <c r="E1064" s="29" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F1064" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1065" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1065" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1065" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1065" s="28" t="s">
+        <v>2050</v>
+      </c>
+      <c r="E1065" s="29" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F1065" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1066" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1066" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1066" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1066" s="28" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E1066" s="29" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F1066" s="28" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1067" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1067" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1067" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1067" s="28" t="s">
+        <v>2054</v>
+      </c>
+      <c r="E1067" s="29" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F1067" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1068" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1068" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1068" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1068" s="28" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E1068" s="29" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F1068" s="28" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1069" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1069" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1069" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1069" s="28" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E1069" s="29" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F1069" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1070" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1070" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1070" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1070" s="28" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E1070" s="29" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F1070" s="28" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1071" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1071" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1071" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1071" s="28" t="s">
+        <v>2012</v>
+      </c>
+      <c r="E1071" s="29" t="s">
+        <v>2013</v>
+      </c>
+      <c r="F1071" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1072" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1072" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1072" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1072" s="28" t="s">
+        <v>2014</v>
+      </c>
+      <c r="E1072" s="29" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F1072" s="28" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1073" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1073" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1073" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1073" s="28" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E1073" s="29" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F1073" s="28" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1074" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1074" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1074" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1074" s="28" t="s">
+        <v>2063</v>
+      </c>
+      <c r="E1074" s="29" t="s">
+        <v>2064</v>
+      </c>
+      <c r="F1074" s="28" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1075" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1075" s="9" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1075" s="28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D1075" s="28" t="s">
+        <v>2065</v>
+      </c>
+      <c r="E1075" s="29" t="s">
+        <v>2066</v>
+      </c>
+      <c r="F1075" s="28" t="s">
+        <v>1619</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
